--- a/API설계서/animal_face_API설계_v002_20200731.xlsx
+++ b/API설계서/animal_face_API설계_v002_20200731.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\animal-face\API설계서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7583A6E3-11DF-4507-8F39-0E02505D9E06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C69A51-C43A-44CA-A6CD-2133A350C97A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="face_result" sheetId="10" r:id="rId5"/>
     <sheet name="admin" sheetId="11" r:id="rId6"/>
     <sheet name="model" sheetId="12" r:id="rId7"/>
+    <sheet name="login" sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="149">
   <si>
     <t>이름</t>
   </si>
@@ -130,8 +131,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>/</t>
+    <t>upload</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
     </r>
     <r>
       <rPr>
@@ -139,30 +144,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>face</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>upload</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>k</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/face</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -301,21 +284,181 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>결과값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보고서 다운로드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 분석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과 보고서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 DB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>": "",</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"time":"",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연령</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"message":""</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과 메시지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내역관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학습데이터 전송</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 저장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"face":"",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학습</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>model-update</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/model_update</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/face</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>face</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지분석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자유</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학습데이터 전송</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학습</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>face_result</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>/face_result</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>그래프</t>
+    <t>학습된 데이터 전송</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 저장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과 보고서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보고서 다운로드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과 보고서 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/model_update</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>processing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"age</t>
     </r>
     <r>
       <rPr>
@@ -323,229 +466,11 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>":"",</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>결과값</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래프</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보고서 다운로드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지 분석</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>결과 보고서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 DB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"age</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t>": "",</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"time":"",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>연령</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"message":""</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>결과 메시지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>내역관리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/admin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>학습데이터 전송</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지 저장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"face":"",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>학습</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>model-update</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/model_update</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>upload</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/face</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>face</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지분석</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자유</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>학습데이터 전송</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>학습</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>face_result</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/face_result</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>학습된 데이터 전송</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지 저장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>결과 보고서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보고서 다운로드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>결과 보고서 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/admin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>model</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/model_update</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>processing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>결과값</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>": "",</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"age</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>": "",</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>삭제</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -587,10 +512,6 @@
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오류, 정상</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -832,6 +753,367 @@
   <si>
     <t>"model":""</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/face/result</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"result":{</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"image":"",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"time":"",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정상</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"age":"",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"gender":"",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결과값</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도도하다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>특징</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>섹시하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어른스럽다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.",</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수치값</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호랑이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: 74, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고양이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:26",</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사항으로</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">png, pdf </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/face/post</t>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>logout</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/logout</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>"username": "",</t>
+  </si>
+  <si>
+    <t>아이디</t>
+  </si>
+  <si>
+    <t>"password": "",</t>
+  </si>
+  <si>
+    <t>비밀번호</t>
+  </si>
+  <si>
+    <t>string(SHA256)</t>
+  </si>
+  <si>
+    <t>로그아웃</t>
   </si>
 </sst>
 </file>
@@ -1109,9 +1391,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1142,9 +1421,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1425,10 +1707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H22"/>
+  <dimension ref="A2:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1438,12 +1720,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.5">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
@@ -1464,8 +1746,8 @@
       <c r="E4" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="55" t="s">
-        <v>106</v>
+      <c r="F4" s="54" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1476,14 +1758,14 @@
         <v>32</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="26" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1491,17 +1773,17 @@
         <v>2</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="26" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1510,14 +1792,14 @@
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="25" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1526,14 +1808,14 @@
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="25" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="26" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1542,14 +1824,14 @@
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="26" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1558,14 +1840,14 @@
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="25" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="26" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1573,19 +1855,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1594,14 +1876,14 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="25" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="26" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1610,14 +1892,14 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="25" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="26" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1626,16 +1908,16 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="25" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1644,16 +1926,16 @@
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="25" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1661,19 +1943,19 @@
         <v>12</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1682,16 +1964,16 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1699,31 +1981,69 @@
         <v>14</v>
       </c>
       <c r="B18" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="17">
+        <v>15</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="E18" s="27" t="s">
+      <c r="F19" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
     </row>
     <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
+      <c r="A20" s="17">
+        <v>16</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
     </row>
-    <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+    </row>
+    <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+    </row>
+    <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
@@ -1738,7 +2058,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1811,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1819,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1827,7 +2149,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1970,8 +2292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A4:F88"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1986,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1994,7 +2316,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2002,7 +2324,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2047,14 +2369,14 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" s="17"/>
       <c r="D10" s="29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>12</v>
@@ -2062,13 +2384,13 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>12</v>
@@ -2076,13 +2398,13 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>12</v>
@@ -2179,11 +2501,11 @@
       <c r="F19" s="22"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="32" t="s">
-        <v>56</v>
+      <c r="A22" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2191,7 +2513,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>36</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2199,7 +2521,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2244,14 +2566,14 @@
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B28" s="17"/>
       <c r="D28" s="29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>12</v>
@@ -2348,11 +2670,11 @@
       <c r="F35" s="22"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="32" t="s">
-        <v>56</v>
+      <c r="A38" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2360,7 +2682,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>36</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2368,7 +2690,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2413,14 +2735,14 @@
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B44" s="17"/>
       <c r="D44" s="29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>12</v>
@@ -2428,13 +2750,13 @@
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="28" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>12</v>
@@ -2442,13 +2764,13 @@
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="28" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>12</v>
@@ -2456,13 +2778,13 @@
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E47" s="30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>12</v>
@@ -2470,13 +2792,13 @@
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="28" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>12</v>
@@ -2573,11 +2895,11 @@
       <c r="F55" s="22"/>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="32" t="s">
-        <v>56</v>
+      <c r="A58" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2585,7 +2907,7 @@
         <v>1</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>36</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2593,7 +2915,7 @@
         <v>2</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2638,14 +2960,14 @@
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B64" s="17"/>
       <c r="D64" s="29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E64" s="30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>12</v>
@@ -2742,11 +3064,11 @@
       <c r="F71" s="22"/>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="32" t="s">
-        <v>56</v>
+      <c r="A75" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2754,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>36</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2762,7 +3084,7 @@
         <v>2</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2807,14 +3129,14 @@
     </row>
     <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B81" s="17"/>
       <c r="D81" s="29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E81" s="30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F81" s="10" t="s">
         <v>12</v>
@@ -2918,1001 +3240,887 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95AAA260-7D30-4FB6-AAD0-C17D7D61368F}">
-  <dimension ref="A2:G85"/>
+  <dimension ref="A3:F75"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="6" width="19.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B4" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+    </row>
+    <row r="7" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
+    </row>
+    <row r="9" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="D9" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="42"/>
+      <c r="D10" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="42"/>
+      <c r="D11" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="42"/>
+      <c r="D12" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="42"/>
+      <c r="D13" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="D14" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="40"/>
+    </row>
+    <row r="16" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+    </row>
+    <row r="17" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
+    </row>
+    <row r="19" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="42"/>
+      <c r="D19" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="42"/>
+      <c r="D20" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="52"/>
+    </row>
+    <row r="23" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+    </row>
+    <row r="27" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="40"/>
+    </row>
+    <row r="29" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="40"/>
+    </row>
+    <row r="30" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+    </row>
+    <row r="31" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="49"/>
+    </row>
+    <row r="33" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="42"/>
+      <c r="D33" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="42"/>
+      <c r="D34" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="42"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="40"/>
+    </row>
+    <row r="36" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="41" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="B36" s="42"/>
+      <c r="D36" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="52"/>
+    </row>
+    <row r="41" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="B43" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-    </row>
-    <row r="6" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+    </row>
+    <row r="45" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B45" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C45" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D45" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E45" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F45" s="36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+    <row r="46" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="41"/>
-    </row>
-    <row r="8" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="43"/>
-      <c r="D8" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="46" t="s">
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="40"/>
+    </row>
+    <row r="47" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="41"/>
-    </row>
-    <row r="10" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="40"/>
+    </row>
+    <row r="48" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-    </row>
-    <row r="11" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="37" t="s">
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+    </row>
+    <row r="49" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B49" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C49" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D49" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E49" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F49" s="36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
+    <row r="50" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="50"/>
-    </row>
-    <row r="13" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="42" t="s">
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="49"/>
+    </row>
+    <row r="51" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="D13" s="45" t="s">
+      <c r="B51" s="42"/>
+      <c r="D51" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="51" t="s">
+      <c r="E51" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="42" t="s">
+      <c r="F51" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="D14" s="45" t="s">
+      <c r="B52" s="42"/>
+      <c r="D52" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E52" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="46" t="s">
+      <c r="F52" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" s="42"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="40"/>
+    </row>
+    <row r="54" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" s="42"/>
+      <c r="D54" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="E56" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="F56" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" s="46"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="52"/>
+    </row>
+    <row r="59" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+    </row>
+    <row r="63" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="38"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="40"/>
+    </row>
+    <row r="65" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="53"/>
-    </row>
-    <row r="17" spans="1:7" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-    </row>
-    <row r="21" spans="1:7" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="37" t="s">
+      <c r="B65" s="46"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="40"/>
+    </row>
+    <row r="66" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+    </row>
+    <row r="67" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B67" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C67" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D67" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="E67" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="37" t="s">
+      <c r="F67" s="36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="38" t="s">
+    <row r="68" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="41"/>
-    </row>
-    <row r="23" spans="1:7" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="43"/>
-      <c r="D23" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="43"/>
-      <c r="D24" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="43"/>
-      <c r="D25" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="43"/>
-      <c r="D26" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="56"/>
-    </row>
-    <row r="27" spans="1:7" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="41"/>
-    </row>
-    <row r="28" spans="1:7" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-    </row>
-    <row r="29" spans="1:7" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="50"/>
-    </row>
-    <row r="31" spans="1:7" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="42" t="s">
+      <c r="B68" s="38"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="49"/>
+    </row>
+    <row r="69" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="43"/>
-      <c r="D31" s="45" t="s">
+      <c r="B69" s="42"/>
+      <c r="D69" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="51" t="s">
+      <c r="E69" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="42" t="s">
+      <c r="F69" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="43"/>
-      <c r="D32" s="45" t="s">
+      <c r="B70" s="42"/>
+      <c r="D70" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="45" t="s">
+      <c r="E70" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="53"/>
-    </row>
-    <row r="35" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-    </row>
-    <row r="39" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="41"/>
-    </row>
-    <row r="41" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="43"/>
-      <c r="D41" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="E41" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="F41" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="41"/>
-    </row>
-    <row r="43" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-    </row>
-    <row r="44" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="50"/>
-    </row>
-    <row r="46" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" s="43"/>
-      <c r="D46" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="B47" s="43"/>
-      <c r="D47" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="42" t="s">
+      <c r="F70" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="B48" s="43"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="41"/>
-    </row>
-    <row r="49" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="D49" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="E49" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="F49" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="D50" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="E50" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="F50" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="46" t="s">
+      <c r="B71" s="42"/>
+      <c r="D71" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="E71" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71" s="40"/>
+    </row>
+    <row r="72" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72" s="42"/>
+      <c r="D72" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="E72" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="F72" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="D73" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E73" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="D74" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="E74" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="F74" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="47"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="53"/>
-    </row>
-    <row r="53" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" s="54" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B54" s="27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" s="27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" s="36"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-    </row>
-    <row r="57" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="39"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="41"/>
-    </row>
-    <row r="59" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="B59" s="43"/>
-      <c r="D59" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="E59" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="F59" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="D60" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="E60" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="F60" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D61" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="E61" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="F61" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" s="47"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="48"/>
-      <c r="E62" s="48"/>
-      <c r="F62" s="41"/>
-    </row>
-    <row r="63" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B63" s="36"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-    </row>
-    <row r="64" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" s="37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="50"/>
-    </row>
-    <row r="66" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B66" s="43"/>
-      <c r="D66" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="B67" s="43"/>
-      <c r="D67" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="E67" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" s="47"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="52"/>
-      <c r="F68" s="53"/>
-    </row>
-    <row r="70" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B70" s="34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B71" s="27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72" s="27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="B73" s="36"/>
-      <c r="C73" s="36"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="36"/>
-    </row>
-    <row r="74" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B74" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E74" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F74" s="37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B75" s="39"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="40"/>
-      <c r="F75" s="41"/>
-    </row>
-    <row r="76" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="B76" s="43"/>
-      <c r="D76" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="E76" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="F76" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="D77" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="E77" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="F77" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D78" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="E78" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="F78" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B79" s="47"/>
-      <c r="C79" s="47"/>
-      <c r="D79" s="48"/>
-      <c r="E79" s="48"/>
-      <c r="F79" s="41"/>
-    </row>
-    <row r="80" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B80" s="36"/>
-      <c r="C80" s="36"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="36"/>
-    </row>
-    <row r="81" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B81" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E81" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F81" s="37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B82" s="39"/>
-      <c r="C82" s="39"/>
-      <c r="D82" s="40"/>
-      <c r="E82" s="49"/>
-      <c r="F82" s="50"/>
-    </row>
-    <row r="83" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B83" s="43"/>
-      <c r="D83" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E83" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="F83" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="B84" s="43"/>
-      <c r="D84" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="E84" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B85" s="47"/>
-      <c r="C85" s="47"/>
-      <c r="D85" s="48"/>
-      <c r="E85" s="52"/>
-      <c r="F85" s="53"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="51"/>
+      <c r="F75" s="52"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3920,414 +4128,414 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF49A97-6167-4D72-A41C-8943E6625A7F}">
   <dimension ref="A2:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+    </row>
+    <row r="6" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
+    </row>
+    <row r="8" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="D8" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="D10" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="40"/>
+    </row>
+    <row r="14" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+    </row>
+    <row r="15" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="49"/>
+    </row>
+    <row r="17" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="42"/>
+      <c r="D17" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="42"/>
+      <c r="D18" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="52"/>
+    </row>
+    <row r="21" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="B22" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="B23" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-    </row>
-    <row r="6" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+    </row>
+    <row r="25" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B25" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C25" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D25" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E25" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F25" s="36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+    <row r="26" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="41"/>
-    </row>
-    <row r="8" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="43"/>
-      <c r="D8" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="42" t="s">
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="40"/>
+    </row>
+    <row r="27" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="42"/>
+      <c r="D27" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="46" t="s">
+      <c r="F27" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="41"/>
-    </row>
-    <row r="14" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="40"/>
+    </row>
+    <row r="29" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-    </row>
-    <row r="15" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+    </row>
+    <row r="30" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B30" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C30" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D30" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E30" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F30" s="36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="s">
+    <row r="31" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="50"/>
-    </row>
-    <row r="17" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="42" t="s">
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="49"/>
+    </row>
+    <row r="32" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="D17" s="45" t="s">
+      <c r="B32" s="42"/>
+      <c r="D32" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="51" t="s">
+      <c r="E32" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="42" t="s">
+      <c r="F32" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="D18" s="45" t="s">
+      <c r="B33" s="42"/>
+      <c r="D33" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E33" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="46" t="s">
+      <c r="F33" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="53"/>
-    </row>
-    <row r="21" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-    </row>
-    <row r="25" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="41"/>
-    </row>
-    <row r="27" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27" s="43"/>
-      <c r="D27" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="F27" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="41"/>
-    </row>
-    <row r="29" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-    </row>
-    <row r="30" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="50"/>
-    </row>
-    <row r="32" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="43"/>
-      <c r="D32" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="43"/>
-      <c r="D33" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="53"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="52"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="57" t="s">
-        <v>116</v>
+      <c r="A39" s="55" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="58" t="s">
-        <v>117</v>
+      <c r="A40" s="56" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -4340,198 +4548,559 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2052C55B-19FF-4CF8-9CFA-136683F061BF}">
   <dimension ref="A2:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+    <row r="2" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="35" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-    </row>
-    <row r="6" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+    </row>
+    <row r="6" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+    <row r="7" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="41"/>
-    </row>
-    <row r="8" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="43"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
+    </row>
+    <row r="8" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="D8" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="40"/>
+    </row>
+    <row r="10" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+    </row>
+    <row r="11" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="49"/>
+    </row>
+    <row r="13" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="42"/>
+      <c r="D13" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="D14" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="42"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="40"/>
+    </row>
+    <row r="16" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="42"/>
+      <c r="D16" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="52"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD48514-9480-496B-B3D2-CF99A3D3E233}">
+  <dimension ref="A2:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+    </row>
+    <row r="6" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
+    </row>
+    <row r="8" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="42"/>
       <c r="D8" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="41"/>
-    </row>
-    <row r="10" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="40"/>
+    </row>
+    <row r="11" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-    </row>
-    <row r="11" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="37" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+    </row>
+    <row r="12" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B12" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C12" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D12" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E12" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F12" s="36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
+    <row r="13" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="50"/>
-    </row>
-    <row r="13" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="42" t="s">
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="49"/>
+    </row>
+    <row r="14" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="D13" s="45" t="s">
+      <c r="B14" s="42"/>
+      <c r="D14" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="51" t="s">
+      <c r="E14" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="42" t="s">
+      <c r="F14" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="D14" s="45" t="s">
+      <c r="B15" s="42"/>
+      <c r="D15" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E15" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="43"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="41"/>
-    </row>
-    <row r="16" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="B16" s="43"/>
-      <c r="D16" s="45"/>
+      <c r="F15" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="51"/>
-      <c r="F16" s="41"/>
-    </row>
-    <row r="17" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="53"/>
+      <c r="F16" s="52"/>
+    </row>
+    <row r="17" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="42"/>
+    </row>
+    <row r="19" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+    </row>
+    <row r="23" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="40"/>
+    </row>
+    <row r="25" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="40"/>
+    </row>
+    <row r="26" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+    </row>
+    <row r="27" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="49"/>
+    </row>
+    <row r="29" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="42"/>
+      <c r="D29" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="42"/>
+      <c r="D30" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="52"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
